--- a/src/test/resources/ExcelData/ds-algologin.xlsx
+++ b/src/test/resources/ExcelData/ds-algologin.xlsx
@@ -22,7 +22,7 @@
     <t>expectedmessage</t>
   </si>
   <si>
-    <t>dddd109</t>
+    <t>SDET109</t>
   </si>
   <si>
     <t>Please fill out this field.</t>
